--- a/data/134/DEUSTATIS/old/National accounts - Compensation of employees(national concept) quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - Compensation of employees(national concept) quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="58">
   <si>
     <t>National accounts - Compensation of employees, wages and
 salaries (national concept): Germany, quarters, original and
@@ -187,7 +187,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:44:41</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:47:34</t>
   </si>
 </sst>
 </file>
@@ -3814,13 +3814,13 @@
         <v>509.068</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>445.261</v>
+        <v>445.246</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>461.091</v>
-      </c>
-      <c r="DU7" t="s" s="11">
-        <v>43</v>
+        <v>463.051</v>
+      </c>
+      <c r="DU7" t="n" s="11">
+        <v>476.611</v>
       </c>
       <c r="DV7" t="s" s="11">
         <v>43</v>
@@ -4194,13 +4194,13 @@
         <v>91.154</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>83.283</v>
+        <v>83.273</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>85.894</v>
-      </c>
-      <c r="DU8" t="s" s="11">
-        <v>43</v>
+        <v>85.976</v>
+      </c>
+      <c r="DU8" t="n" s="11">
+        <v>85.291</v>
       </c>
       <c r="DV8" t="s" s="11">
         <v>43</v>
@@ -4574,13 +4574,13 @@
         <v>417.914</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>361.978</v>
+        <v>361.973</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>375.197</v>
-      </c>
-      <c r="DU9" t="s" s="11">
-        <v>43</v>
+        <v>377.075</v>
+      </c>
+      <c r="DU9" t="n" s="11">
+        <v>391.32</v>
       </c>
       <c r="DV9" t="s" s="11">
         <v>43</v>
@@ -4954,13 +4954,13 @@
         <v>135.859</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>116.922</v>
+        <v>116.923</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>125.211</v>
-      </c>
-      <c r="DU10" t="s" s="11">
-        <v>43</v>
+        <v>126.239</v>
+      </c>
+      <c r="DU10" t="n" s="11">
+        <v>121.254</v>
       </c>
       <c r="DV10" t="s" s="11">
         <v>43</v>
@@ -5334,13 +5334,13 @@
         <v>67.463</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>60.579</v>
+        <v>60.583</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>64.099</v>
-      </c>
-      <c r="DU11" t="s" s="11">
-        <v>43</v>
+        <v>64.418</v>
+      </c>
+      <c r="DU11" t="n" s="11">
+        <v>64.503</v>
       </c>
       <c r="DV11" t="s" s="11">
         <v>43</v>
@@ -5714,13 +5714,13 @@
         <v>68.396</v>
       </c>
       <c r="DS12" t="n" s="11">
-        <v>56.343</v>
+        <v>56.34</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>61.112</v>
-      </c>
-      <c r="DU12" t="s" s="11">
-        <v>43</v>
+        <v>61.821</v>
+      </c>
+      <c r="DU12" t="n" s="11">
+        <v>56.751</v>
       </c>
       <c r="DV12" t="s" s="11">
         <v>43</v>
@@ -6094,13 +6094,13 @@
         <v>282.055</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>245.056</v>
+        <v>245.05</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>249.986</v>
-      </c>
-      <c r="DU13" t="s" s="11">
-        <v>43</v>
+        <v>250.836</v>
+      </c>
+      <c r="DU13" t="n" s="11">
+        <v>270.066</v>
       </c>
       <c r="DV13" t="s" s="11">
         <v>43</v>
@@ -6477,10 +6477,10 @@
         <v>3670.0</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>3779.0</v>
-      </c>
-      <c r="DU14" t="s" s="11">
-        <v>43</v>
+        <v>3794.0</v>
+      </c>
+      <c r="DU14" t="n" s="11">
+        <v>3879.0</v>
       </c>
       <c r="DV14" t="s" s="11">
         <v>43</v>
@@ -6854,13 +6854,13 @@
         <v>3406.0</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>2984.0</v>
+        <v>2983.0</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>3075.0</v>
-      </c>
-      <c r="DU15" t="s" s="11">
-        <v>43</v>
+        <v>3089.0</v>
+      </c>
+      <c r="DU15" t="n" s="11">
+        <v>3185.0</v>
       </c>
       <c r="DV15" t="s" s="11">
         <v>43</v>
@@ -7237,10 +7237,10 @@
         <v>2020.0</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>2049.0</v>
-      </c>
-      <c r="DU16" t="s" s="11">
-        <v>43</v>
+        <v>2055.0</v>
+      </c>
+      <c r="DU16" t="n" s="11">
+        <v>2198.0</v>
       </c>
       <c r="DV16" t="s" s="11">
         <v>43</v>
@@ -7619,13 +7619,13 @@
         <v>470.538</v>
       </c>
       <c r="DS18" t="n" s="11">
-        <v>467.966</v>
+        <v>467.948</v>
       </c>
       <c r="DT18" t="n" s="11">
-        <v>469.306</v>
-      </c>
-      <c r="DU18" t="s" s="11">
-        <v>43</v>
+        <v>471.253</v>
+      </c>
+      <c r="DU18" t="n" s="11">
+        <v>484.365</v>
       </c>
       <c r="DV18" t="s" s="11">
         <v>43</v>
@@ -7999,13 +7999,13 @@
         <v>87.898</v>
       </c>
       <c r="DS19" t="n" s="11">
-        <v>85.063</v>
+        <v>85.05</v>
       </c>
       <c r="DT19" t="n" s="11">
-        <v>84.685</v>
-      </c>
-      <c r="DU19" t="s" s="11">
-        <v>43</v>
+        <v>84.708</v>
+      </c>
+      <c r="DU19" t="n" s="11">
+        <v>87.086</v>
       </c>
       <c r="DV19" t="s" s="11">
         <v>43</v>
@@ -8379,13 +8379,13 @@
         <v>382.64</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>382.903</v>
+        <v>382.898</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>384.621</v>
-      </c>
-      <c r="DU20" t="s" s="11">
-        <v>43</v>
+        <v>386.545</v>
+      </c>
+      <c r="DU20" t="n" s="11">
+        <v>397.279</v>
       </c>
       <c r="DV20" t="s" s="11">
         <v>43</v>
@@ -8759,13 +8759,13 @@
         <v>122.341</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>124.702</v>
+        <v>124.703</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>123.863</v>
-      </c>
-      <c r="DU21" t="s" s="11">
-        <v>43</v>
+        <v>124.9</v>
+      </c>
+      <c r="DU21" t="n" s="11">
+        <v>128.855</v>
       </c>
       <c r="DV21" t="s" s="11">
         <v>43</v>
@@ -9139,13 +9139,13 @@
         <v>61.418</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>63.722</v>
+        <v>63.726</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>65.129</v>
-      </c>
-      <c r="DU22" t="s" s="11">
-        <v>43</v>
+        <v>65.484</v>
+      </c>
+      <c r="DU22" t="n" s="11">
+        <v>66.743</v>
       </c>
       <c r="DV22" t="s" s="11">
         <v>43</v>
@@ -9519,13 +9519,13 @@
         <v>60.923</v>
       </c>
       <c r="DS23" t="n" s="11">
-        <v>60.98</v>
+        <v>60.977</v>
       </c>
       <c r="DT23" t="n" s="11">
-        <v>58.734</v>
-      </c>
-      <c r="DU23" t="s" s="11">
-        <v>43</v>
+        <v>59.416</v>
+      </c>
+      <c r="DU23" t="n" s="11">
+        <v>62.112</v>
       </c>
       <c r="DV23" t="s" s="11">
         <v>43</v>
@@ -9899,13 +9899,13 @@
         <v>260.299</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>258.201</v>
+        <v>258.195</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>260.758</v>
-      </c>
-      <c r="DU24" t="s" s="11">
-        <v>43</v>
+        <v>261.645</v>
+      </c>
+      <c r="DU24" t="n" s="11">
+        <v>268.424</v>
       </c>
       <c r="DV24" t="s" s="11">
         <v>43</v>
@@ -10003,7 +10003,7 @@
         <v>2515.0</v>
       </c>
       <c r="AE25" t="n" s="11">
-        <v>2517.0</v>
+        <v>2516.0</v>
       </c>
       <c r="AF25" t="n" s="11">
         <v>2526.0</v>
@@ -10090,7 +10090,7 @@
         <v>2753.0</v>
       </c>
       <c r="BH25" t="n" s="11">
-        <v>2752.0</v>
+        <v>2751.0</v>
       </c>
       <c r="BI25" t="n" s="11">
         <v>2747.0</v>
@@ -10102,7 +10102,7 @@
         <v>2771.0</v>
       </c>
       <c r="BL25" t="n" s="11">
-        <v>2772.0</v>
+        <v>2771.0</v>
       </c>
       <c r="BM25" t="n" s="11">
         <v>2789.0</v>
@@ -10267,13 +10267,13 @@
         <v>3801.0</v>
       </c>
       <c r="DO25" t="n" s="11">
-        <v>3807.0</v>
+        <v>3806.0</v>
       </c>
       <c r="DP25" t="n" s="11">
-        <v>3670.0</v>
+        <v>3669.0</v>
       </c>
       <c r="DQ25" t="n" s="11">
-        <v>3810.0</v>
+        <v>3811.0</v>
       </c>
       <c r="DR25" t="n" s="11">
         <v>3857.0</v>
@@ -10282,10 +10282,10 @@
         <v>3839.0</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>3841.0</v>
-      </c>
-      <c r="DU25" t="s" s="11">
-        <v>43</v>
+        <v>3855.0</v>
+      </c>
+      <c r="DU25" t="n" s="11">
+        <v>3944.0</v>
       </c>
       <c r="DV25" t="s" s="11">
         <v>43</v>
@@ -10482,7 +10482,7 @@
         <v>2237.0</v>
       </c>
       <c r="BL26" t="n" s="11">
-        <v>2243.0</v>
+        <v>2242.0</v>
       </c>
       <c r="BM26" t="n" s="11">
         <v>2253.0</v>
@@ -10617,7 +10617,7 @@
         <v>2907.0</v>
       </c>
       <c r="DE26" t="n" s="11">
-        <v>2923.0</v>
+        <v>2924.0</v>
       </c>
       <c r="DF26" t="n" s="11">
         <v>2948.0</v>
@@ -10662,10 +10662,10 @@
         <v>3141.0</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>3148.0</v>
-      </c>
-      <c r="DU26" t="s" s="11">
-        <v>43</v>
+        <v>3162.0</v>
+      </c>
+      <c r="DU26" t="n" s="11">
+        <v>3235.0</v>
       </c>
       <c r="DV26" t="s" s="11">
         <v>43</v>
@@ -10763,7 +10763,7 @@
         <v>1336.0</v>
       </c>
       <c r="AE27" t="n" s="11">
-        <v>1348.0</v>
+        <v>1347.0</v>
       </c>
       <c r="AF27" t="n" s="11">
         <v>1347.0</v>
@@ -11009,7 +11009,7 @@
         <v>1997.0</v>
       </c>
       <c r="DI27" t="n" s="11">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="DJ27" t="n" s="11">
         <v>2033.0</v>
@@ -11042,10 +11042,10 @@
         <v>2118.0</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>2134.0</v>
-      </c>
-      <c r="DU27" t="s" s="11">
-        <v>43</v>
+        <v>2140.0</v>
+      </c>
+      <c r="DU27" t="n" s="11">
+        <v>2186.0</v>
       </c>
       <c r="DV27" t="s" s="11">
         <v>43</v>
@@ -11064,61 +11064,61 @@
         <v>42</v>
       </c>
       <c r="C29" t="n" s="11">
-        <v>207.636</v>
+        <v>207.629</v>
       </c>
       <c r="D29" t="n" s="11">
-        <v>214.187</v>
+        <v>214.096</v>
       </c>
       <c r="E29" t="n" s="11">
-        <v>214.529</v>
+        <v>214.413</v>
       </c>
       <c r="F29" t="n" s="11">
-        <v>219.316</v>
+        <v>219.538</v>
       </c>
       <c r="G29" t="n" s="11">
-        <v>226.026</v>
+        <v>226.056</v>
       </c>
       <c r="H29" t="n" s="11">
-        <v>229.519</v>
+        <v>229.392</v>
       </c>
       <c r="I29" t="n" s="11">
-        <v>235.537</v>
+        <v>235.394</v>
       </c>
       <c r="J29" t="n" s="11">
-        <v>236.243</v>
+        <v>236.467</v>
       </c>
       <c r="K29" t="n" s="11">
-        <v>233.68</v>
+        <v>233.742</v>
       </c>
       <c r="L29" t="n" s="11">
-        <v>237.435</v>
+        <v>237.299</v>
       </c>
       <c r="M29" t="n" s="11">
-        <v>237.855</v>
+        <v>237.759</v>
       </c>
       <c r="N29" t="n" s="11">
-        <v>240.096</v>
+        <v>240.221</v>
       </c>
       <c r="O29" t="n" s="11">
-        <v>241.807</v>
+        <v>241.847</v>
       </c>
       <c r="P29" t="n" s="11">
-        <v>241.95</v>
+        <v>241.894</v>
       </c>
       <c r="Q29" t="n" s="11">
-        <v>243.675</v>
+        <v>243.659</v>
       </c>
       <c r="R29" t="n" s="11">
-        <v>246.836</v>
+        <v>246.848</v>
       </c>
       <c r="S29" t="n" s="11">
-        <v>248.472</v>
+        <v>248.479</v>
       </c>
       <c r="T29" t="n" s="11">
-        <v>251.894</v>
+        <v>251.892</v>
       </c>
       <c r="U29" t="n" s="11">
-        <v>253.315</v>
+        <v>253.314</v>
       </c>
       <c r="V29" t="n" s="11">
         <v>255.29</v>
@@ -11247,70 +11247,70 @@
         <v>289.219</v>
       </c>
       <c r="BL29" t="n" s="11">
-        <v>291.147</v>
+        <v>291.146</v>
       </c>
       <c r="BM29" t="n" s="11">
-        <v>294.15</v>
+        <v>294.149</v>
       </c>
       <c r="BN29" t="n" s="11">
-        <v>295.546</v>
+        <v>295.545</v>
       </c>
       <c r="BO29" t="n" s="11">
-        <v>297.758</v>
+        <v>297.767</v>
       </c>
       <c r="BP29" t="n" s="11">
-        <v>299.984</v>
+        <v>299.983</v>
       </c>
       <c r="BQ29" t="n" s="11">
-        <v>301.913</v>
+        <v>301.895</v>
       </c>
       <c r="BR29" t="n" s="11">
-        <v>304.61</v>
+        <v>304.574</v>
       </c>
       <c r="BS29" t="n" s="11">
-        <v>308.686</v>
+        <v>308.794</v>
       </c>
       <c r="BT29" t="n" s="11">
-        <v>312.135</v>
+        <v>312.1</v>
       </c>
       <c r="BU29" t="n" s="11">
-        <v>313.945</v>
+        <v>313.893</v>
       </c>
       <c r="BV29" t="n" s="11">
-        <v>316.243</v>
+        <v>316.172</v>
       </c>
       <c r="BW29" t="n" s="11">
-        <v>313.971</v>
+        <v>314.166</v>
       </c>
       <c r="BX29" t="n" s="11">
-        <v>313.622</v>
+        <v>313.551</v>
       </c>
       <c r="BY29" t="n" s="11">
-        <v>314.988</v>
+        <v>314.936</v>
       </c>
       <c r="BZ29" t="n" s="11">
-        <v>315.756</v>
+        <v>315.721</v>
       </c>
       <c r="CA29" t="n" s="11">
-        <v>319.159</v>
+        <v>319.266</v>
       </c>
       <c r="CB29" t="n" s="11">
-        <v>322.053</v>
+        <v>322.017</v>
       </c>
       <c r="CC29" t="n" s="11">
-        <v>325.389</v>
+        <v>325.371</v>
       </c>
       <c r="CD29" t="n" s="11">
         <v>329.008</v>
       </c>
       <c r="CE29" t="n" s="11">
-        <v>333.129</v>
+        <v>333.138</v>
       </c>
       <c r="CF29" t="n" s="11">
         <v>336.606</v>
       </c>
       <c r="CG29" t="n" s="11">
-        <v>339.434</v>
+        <v>339.433</v>
       </c>
       <c r="CH29" t="n" s="11">
         <v>342.42</v>
@@ -11370,67 +11370,67 @@
         <v>403.556</v>
       </c>
       <c r="DA29" t="n" s="11">
-        <v>408.066</v>
+        <v>408.067</v>
       </c>
       <c r="DB29" t="n" s="11">
-        <v>412.419</v>
+        <v>412.42</v>
       </c>
       <c r="DC29" t="n" s="11">
-        <v>416.992</v>
+        <v>416.993</v>
       </c>
       <c r="DD29" t="n" s="11">
-        <v>421.722</v>
+        <v>421.708</v>
       </c>
       <c r="DE29" t="n" s="11">
         <v>425.857</v>
       </c>
       <c r="DF29" t="n" s="11">
-        <v>431.124</v>
+        <v>431.159</v>
       </c>
       <c r="DG29" t="n" s="11">
-        <v>435.563</v>
+        <v>435.626</v>
       </c>
       <c r="DH29" t="n" s="11">
-        <v>441.09</v>
+        <v>440.858</v>
       </c>
       <c r="DI29" t="n" s="11">
-        <v>445.901</v>
+        <v>445.935</v>
       </c>
       <c r="DJ29" t="n" s="11">
-        <v>450.19</v>
+        <v>450.468</v>
       </c>
       <c r="DK29" t="n" s="11">
-        <v>455.422</v>
+        <v>455.828</v>
       </c>
       <c r="DL29" t="n" s="11">
-        <v>465.633</v>
+        <v>464.32</v>
       </c>
       <c r="DM29" t="n" s="11">
-        <v>466.781</v>
+        <v>466.945</v>
       </c>
       <c r="DN29" t="n" s="11">
-        <v>466.318</v>
+        <v>467.502</v>
       </c>
       <c r="DO29" t="n" s="11">
-        <v>466.931</v>
+        <v>467.981</v>
       </c>
       <c r="DP29" t="n" s="11">
-        <v>454.427</v>
+        <v>452.132</v>
       </c>
       <c r="DQ29" t="n" s="11">
-        <v>463.122</v>
+        <v>463.207</v>
       </c>
       <c r="DR29" t="n" s="11">
-        <v>466.613</v>
+        <v>468.398</v>
       </c>
       <c r="DS29" t="n" s="11">
-        <v>464.886</v>
+        <v>466.323</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>477.405</v>
-      </c>
-      <c r="DU29" t="s" s="11">
-        <v>43</v>
+        <v>476.209</v>
+      </c>
+      <c r="DU29" t="n" s="11">
+        <v>483.157</v>
       </c>
       <c r="DV29" t="s" s="11">
         <v>43</v>
@@ -11444,61 +11444,61 @@
         <v>42</v>
       </c>
       <c r="C30" t="n" s="11">
-        <v>36.357</v>
+        <v>36.35</v>
       </c>
       <c r="D30" t="n" s="11">
-        <v>38.571</v>
+        <v>38.48</v>
       </c>
       <c r="E30" t="n" s="11">
-        <v>38.515</v>
+        <v>38.399</v>
       </c>
       <c r="F30" t="n" s="11">
-        <v>39.173</v>
+        <v>39.395</v>
       </c>
       <c r="G30" t="n" s="11">
-        <v>40.0</v>
+        <v>40.03</v>
       </c>
       <c r="H30" t="n" s="11">
-        <v>40.81</v>
+        <v>40.683</v>
       </c>
       <c r="I30" t="n" s="11">
-        <v>42.231</v>
+        <v>42.088</v>
       </c>
       <c r="J30" t="n" s="11">
-        <v>42.583</v>
+        <v>42.807</v>
       </c>
       <c r="K30" t="n" s="11">
-        <v>40.451</v>
+        <v>40.513</v>
       </c>
       <c r="L30" t="n" s="11">
-        <v>42.106</v>
+        <v>41.97</v>
       </c>
       <c r="M30" t="n" s="11">
-        <v>42.149</v>
+        <v>42.053</v>
       </c>
       <c r="N30" t="n" s="11">
-        <v>43.046</v>
+        <v>43.171</v>
       </c>
       <c r="O30" t="n" s="11">
-        <v>43.812</v>
+        <v>43.852</v>
       </c>
       <c r="P30" t="n" s="11">
-        <v>44.579</v>
+        <v>44.523</v>
       </c>
       <c r="Q30" t="n" s="11">
-        <v>44.905</v>
+        <v>44.889</v>
       </c>
       <c r="R30" t="n" s="11">
-        <v>46.195</v>
+        <v>46.207</v>
       </c>
       <c r="S30" t="n" s="11">
-        <v>46.175</v>
+        <v>46.182</v>
       </c>
       <c r="T30" t="n" s="11">
-        <v>47.128</v>
+        <v>47.126</v>
       </c>
       <c r="U30" t="n" s="11">
-        <v>47.713</v>
+        <v>47.712</v>
       </c>
       <c r="V30" t="n" s="11">
         <v>48.563</v>
@@ -11627,70 +11627,70 @@
         <v>55.485</v>
       </c>
       <c r="BL30" t="n" s="11">
-        <v>55.612</v>
+        <v>55.611</v>
       </c>
       <c r="BM30" t="n" s="11">
-        <v>56.244</v>
+        <v>56.243</v>
       </c>
       <c r="BN30" t="n" s="11">
-        <v>56.389</v>
+        <v>56.388</v>
       </c>
       <c r="BO30" t="n" s="11">
-        <v>56.144</v>
+        <v>56.153</v>
       </c>
       <c r="BP30" t="n" s="11">
-        <v>56.222</v>
+        <v>56.221</v>
       </c>
       <c r="BQ30" t="n" s="11">
-        <v>56.618</v>
+        <v>56.6</v>
       </c>
       <c r="BR30" t="n" s="11">
-        <v>56.739</v>
+        <v>56.703</v>
       </c>
       <c r="BS30" t="n" s="11">
-        <v>56.986</v>
+        <v>57.094</v>
       </c>
       <c r="BT30" t="n" s="11">
-        <v>57.896</v>
+        <v>57.861</v>
       </c>
       <c r="BU30" t="n" s="11">
-        <v>58.331</v>
+        <v>58.279</v>
       </c>
       <c r="BV30" t="n" s="11">
-        <v>59.201</v>
+        <v>59.13</v>
       </c>
       <c r="BW30" t="n" s="11">
-        <v>59.029</v>
+        <v>59.224</v>
       </c>
       <c r="BX30" t="n" s="11">
-        <v>59.342</v>
+        <v>59.271</v>
       </c>
       <c r="BY30" t="n" s="11">
-        <v>59.157</v>
+        <v>59.105</v>
       </c>
       <c r="BZ30" t="n" s="11">
-        <v>59.058</v>
+        <v>59.023</v>
       </c>
       <c r="CA30" t="n" s="11">
-        <v>59.876</v>
+        <v>59.983</v>
       </c>
       <c r="CB30" t="n" s="11">
-        <v>60.392</v>
+        <v>60.356</v>
       </c>
       <c r="CC30" t="n" s="11">
-        <v>61.024</v>
+        <v>61.006</v>
       </c>
       <c r="CD30" t="n" s="11">
         <v>61.582</v>
       </c>
       <c r="CE30" t="n" s="11">
-        <v>61.562</v>
+        <v>61.571</v>
       </c>
       <c r="CF30" t="n" s="11">
         <v>61.959</v>
       </c>
       <c r="CG30" t="n" s="11">
-        <v>62.338</v>
+        <v>62.337</v>
       </c>
       <c r="CH30" t="n" s="11">
         <v>62.631</v>
@@ -11750,67 +11750,67 @@
         <v>71.425</v>
       </c>
       <c r="DA30" t="n" s="11">
-        <v>72.292</v>
+        <v>72.293</v>
       </c>
       <c r="DB30" t="n" s="11">
-        <v>72.879</v>
+        <v>72.88</v>
       </c>
       <c r="DC30" t="n" s="11">
-        <v>74.007</v>
+        <v>74.008</v>
       </c>
       <c r="DD30" t="n" s="11">
-        <v>74.982</v>
+        <v>74.968</v>
       </c>
       <c r="DE30" t="n" s="11">
         <v>75.479</v>
       </c>
       <c r="DF30" t="n" s="11">
-        <v>76.449</v>
+        <v>76.484</v>
       </c>
       <c r="DG30" t="n" s="11">
-        <v>76.325</v>
+        <v>76.388</v>
       </c>
       <c r="DH30" t="n" s="11">
-        <v>77.277</v>
+        <v>77.045</v>
       </c>
       <c r="DI30" t="n" s="11">
-        <v>78.264</v>
+        <v>78.297</v>
       </c>
       <c r="DJ30" t="n" s="11">
-        <v>79.231</v>
+        <v>79.518</v>
       </c>
       <c r="DK30" t="n" s="11">
-        <v>81.592</v>
+        <v>82.033</v>
       </c>
       <c r="DL30" t="n" s="11">
-        <v>81.948</v>
+        <v>80.731</v>
       </c>
       <c r="DM30" t="n" s="11">
         <v>83.76</v>
       </c>
       <c r="DN30" t="n" s="11">
-        <v>84.366</v>
+        <v>85.359</v>
       </c>
       <c r="DO30" t="n" s="11">
-        <v>83.624</v>
+        <v>84.718</v>
       </c>
       <c r="DP30" t="n" s="11">
-        <v>83.116</v>
+        <v>80.727</v>
       </c>
       <c r="DQ30" t="n" s="11">
-        <v>85.508</v>
+        <v>85.323</v>
       </c>
       <c r="DR30" t="n" s="11">
-        <v>85.952</v>
+        <v>87.43</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>85.603</v>
+        <v>86.883</v>
       </c>
       <c r="DT30" t="n" s="11">
-        <v>85.864</v>
-      </c>
-      <c r="DU30" t="s" s="11">
-        <v>43</v>
+        <v>83.15</v>
+      </c>
+      <c r="DU30" t="n" s="11">
+        <v>87.857</v>
       </c>
       <c r="DV30" t="s" s="11">
         <v>43</v>
@@ -12154,43 +12154,43 @@
         <v>363.813</v>
       </c>
       <c r="DI31" t="n" s="11">
-        <v>367.637</v>
+        <v>367.638</v>
       </c>
       <c r="DJ31" t="n" s="11">
-        <v>370.959</v>
+        <v>370.95</v>
       </c>
       <c r="DK31" t="n" s="11">
-        <v>373.83</v>
+        <v>373.795</v>
       </c>
       <c r="DL31" t="n" s="11">
-        <v>383.685</v>
+        <v>383.589</v>
       </c>
       <c r="DM31" t="n" s="11">
-        <v>383.021</v>
+        <v>383.185</v>
       </c>
       <c r="DN31" t="n" s="11">
-        <v>381.952</v>
+        <v>382.143</v>
       </c>
       <c r="DO31" t="n" s="11">
-        <v>383.307</v>
+        <v>383.263</v>
       </c>
       <c r="DP31" t="n" s="11">
-        <v>371.311</v>
+        <v>371.405</v>
       </c>
       <c r="DQ31" t="n" s="11">
-        <v>377.614</v>
+        <v>377.884</v>
       </c>
       <c r="DR31" t="n" s="11">
-        <v>380.661</v>
+        <v>380.968</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>379.283</v>
+        <v>379.44</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>391.541</v>
-      </c>
-      <c r="DU31" t="s" s="11">
-        <v>43</v>
+        <v>393.059</v>
+      </c>
+      <c r="DU31" t="n" s="11">
+        <v>395.3</v>
       </c>
       <c r="DV31" t="s" s="11">
         <v>43</v>
@@ -12534,43 +12534,43 @@
         <v>121.037</v>
       </c>
       <c r="DI32" t="n" s="11">
-        <v>122.303</v>
+        <v>122.297</v>
       </c>
       <c r="DJ32" t="n" s="11">
-        <v>123.061</v>
+        <v>123.031</v>
       </c>
       <c r="DK32" t="n" s="11">
-        <v>123.148</v>
+        <v>123.085</v>
       </c>
       <c r="DL32" t="n" s="11">
-        <v>126.466</v>
+        <v>126.557</v>
       </c>
       <c r="DM32" t="n" s="11">
-        <v>125.818</v>
+        <v>126.035</v>
       </c>
       <c r="DN32" t="n" s="11">
-        <v>126.127</v>
+        <v>126.039</v>
       </c>
       <c r="DO32" t="n" s="11">
-        <v>126.804</v>
+        <v>125.791</v>
       </c>
       <c r="DP32" t="n" s="11">
-        <v>120.105</v>
+        <v>121.213</v>
       </c>
       <c r="DQ32" t="n" s="11">
-        <v>122.372</v>
+        <v>122.709</v>
       </c>
       <c r="DR32" t="n" s="11">
-        <v>123.054</v>
+        <v>122.924</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>124.453</v>
+        <v>122.769</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>123.55</v>
-      </c>
-      <c r="DU32" t="s" s="11">
-        <v>43</v>
+        <v>126.647</v>
+      </c>
+      <c r="DU32" t="n" s="11">
+        <v>127.937</v>
       </c>
       <c r="DV32" t="s" s="11">
         <v>43</v>
@@ -12914,43 +12914,43 @@
         <v>61.653</v>
       </c>
       <c r="DI33" t="n" s="11">
-        <v>62.279</v>
+        <v>62.273</v>
       </c>
       <c r="DJ33" t="n" s="11">
-        <v>62.624</v>
+        <v>62.594</v>
       </c>
       <c r="DK33" t="n" s="11">
-        <v>62.177</v>
+        <v>62.114</v>
       </c>
       <c r="DL33" t="n" s="11">
-        <v>63.418</v>
+        <v>63.52</v>
       </c>
       <c r="DM33" t="n" s="11">
-        <v>62.874</v>
+        <v>63.087</v>
       </c>
       <c r="DN33" t="n" s="11">
-        <v>63.214</v>
+        <v>63.118</v>
       </c>
       <c r="DO33" t="n" s="11">
-        <v>64.473</v>
+        <v>63.458</v>
       </c>
       <c r="DP33" t="n" s="11">
-        <v>60.093</v>
+        <v>61.077</v>
       </c>
       <c r="DQ33" t="n" s="11">
-        <v>61.989</v>
+        <v>62.405</v>
       </c>
       <c r="DR33" t="n" s="11">
-        <v>62.706</v>
+        <v>62.569</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>64.513</v>
+        <v>62.8</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>63.409</v>
-      </c>
-      <c r="DU33" t="s" s="11">
-        <v>43</v>
+        <v>65.753</v>
+      </c>
+      <c r="DU33" t="n" s="11">
+        <v>65.874</v>
       </c>
       <c r="DV33" t="s" s="11">
         <v>43</v>
@@ -13303,34 +13303,34 @@
         <v>60.971</v>
       </c>
       <c r="DL34" t="n" s="11">
-        <v>63.048</v>
+        <v>63.037</v>
       </c>
       <c r="DM34" t="n" s="11">
-        <v>62.944</v>
+        <v>62.948</v>
       </c>
       <c r="DN34" t="n" s="11">
-        <v>62.913</v>
+        <v>62.921</v>
       </c>
       <c r="DO34" t="n" s="11">
-        <v>62.331</v>
+        <v>62.333</v>
       </c>
       <c r="DP34" t="n" s="11">
-        <v>60.012</v>
+        <v>60.136</v>
       </c>
       <c r="DQ34" t="n" s="11">
-        <v>60.383</v>
+        <v>60.304</v>
       </c>
       <c r="DR34" t="n" s="11">
-        <v>60.348</v>
+        <v>60.355</v>
       </c>
       <c r="DS34" t="n" s="11">
-        <v>59.94</v>
+        <v>59.969</v>
       </c>
       <c r="DT34" t="n" s="11">
-        <v>60.141</v>
-      </c>
-      <c r="DU34" t="s" s="11">
-        <v>43</v>
+        <v>60.894</v>
+      </c>
+      <c r="DU34" t="n" s="11">
+        <v>62.063</v>
       </c>
       <c r="DV34" t="s" s="11">
         <v>43</v>
@@ -13674,43 +13674,43 @@
         <v>242.776</v>
       </c>
       <c r="DI35" t="n" s="11">
-        <v>245.334</v>
+        <v>245.341</v>
       </c>
       <c r="DJ35" t="n" s="11">
-        <v>247.898</v>
+        <v>247.919</v>
       </c>
       <c r="DK35" t="n" s="11">
-        <v>250.682</v>
+        <v>250.71</v>
       </c>
       <c r="DL35" t="n" s="11">
-        <v>257.219</v>
+        <v>257.032</v>
       </c>
       <c r="DM35" t="n" s="11">
-        <v>257.203</v>
+        <v>257.15</v>
       </c>
       <c r="DN35" t="n" s="11">
-        <v>255.825</v>
+        <v>256.104</v>
       </c>
       <c r="DO35" t="n" s="11">
-        <v>256.503</v>
+        <v>257.472</v>
       </c>
       <c r="DP35" t="n" s="11">
-        <v>251.206</v>
+        <v>250.192</v>
       </c>
       <c r="DQ35" t="n" s="11">
-        <v>255.242</v>
+        <v>255.175</v>
       </c>
       <c r="DR35" t="n" s="11">
-        <v>257.607</v>
+        <v>258.044</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>254.83</v>
+        <v>256.671</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>267.991</v>
-      </c>
-      <c r="DU35" t="s" s="11">
-        <v>43</v>
+        <v>266.412</v>
+      </c>
+      <c r="DU35" t="n" s="11">
+        <v>267.363</v>
       </c>
       <c r="DV35" t="s" s="11">
         <v>43</v>
@@ -13727,43 +13727,43 @@
         <v>1941.0</v>
       </c>
       <c r="D36" t="n" s="11">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E36" t="n" s="11">
-        <v>2030.0</v>
+        <v>2029.0</v>
       </c>
       <c r="F36" t="n" s="11">
-        <v>2081.0</v>
+        <v>2083.0</v>
       </c>
       <c r="G36" t="n" s="11">
         <v>2154.0</v>
       </c>
       <c r="H36" t="n" s="11">
-        <v>2195.0</v>
+        <v>2193.0</v>
       </c>
       <c r="I36" t="n" s="11">
-        <v>2261.0</v>
+        <v>2260.0</v>
       </c>
       <c r="J36" t="n" s="11">
-        <v>2281.0</v>
+        <v>2283.0</v>
       </c>
       <c r="K36" t="n" s="11">
         <v>2267.0</v>
       </c>
       <c r="L36" t="n" s="11">
-        <v>2313.0</v>
+        <v>2312.0</v>
       </c>
       <c r="M36" t="n" s="11">
-        <v>2323.0</v>
+        <v>2322.0</v>
       </c>
       <c r="N36" t="n" s="11">
-        <v>2350.0</v>
+        <v>2352.0</v>
       </c>
       <c r="O36" t="n" s="11">
         <v>2365.0</v>
       </c>
       <c r="P36" t="n" s="11">
-        <v>2367.0</v>
+        <v>2366.0</v>
       </c>
       <c r="Q36" t="n" s="11">
         <v>2381.0</v>
@@ -13916,7 +13916,7 @@
         <v>2789.0</v>
       </c>
       <c r="BO36" t="n" s="11">
-        <v>2792.0</v>
+        <v>2793.0</v>
       </c>
       <c r="BP36" t="n" s="11">
         <v>2802.0</v>
@@ -13928,22 +13928,22 @@
         <v>2824.0</v>
       </c>
       <c r="BS36" t="n" s="11">
-        <v>2847.0</v>
+        <v>2848.0</v>
       </c>
       <c r="BT36" t="n" s="11">
-        <v>2869.0</v>
+        <v>2868.0</v>
       </c>
       <c r="BU36" t="n" s="11">
-        <v>2876.0</v>
+        <v>2875.0</v>
       </c>
       <c r="BV36" t="n" s="11">
         <v>2891.0</v>
       </c>
       <c r="BW36" t="n" s="11">
-        <v>2871.0</v>
+        <v>2872.0</v>
       </c>
       <c r="BX36" t="n" s="11">
-        <v>2874.0</v>
+        <v>2873.0</v>
       </c>
       <c r="BY36" t="n" s="11">
         <v>2891.0</v>
@@ -13952,10 +13952,10 @@
         <v>2899.0</v>
       </c>
       <c r="CA36" t="n" s="11">
-        <v>2929.0</v>
+        <v>2930.0</v>
       </c>
       <c r="CB36" t="n" s="11">
-        <v>2946.0</v>
+        <v>2945.0</v>
       </c>
       <c r="CC36" t="n" s="11">
         <v>2967.0</v>
@@ -14048,49 +14048,49 @@
         <v>3583.0</v>
       </c>
       <c r="DG36" t="n" s="11">
-        <v>3604.0</v>
+        <v>3605.0</v>
       </c>
       <c r="DH36" t="n" s="11">
-        <v>3636.0</v>
+        <v>3634.0</v>
       </c>
       <c r="DI36" t="n" s="11">
         <v>3663.0</v>
       </c>
       <c r="DJ36" t="n" s="11">
-        <v>3688.0</v>
+        <v>3690.0</v>
       </c>
       <c r="DK36" t="n" s="11">
-        <v>3722.0</v>
+        <v>3725.0</v>
       </c>
       <c r="DL36" t="n" s="11">
-        <v>3785.0</v>
+        <v>3774.0</v>
       </c>
       <c r="DM36" t="n" s="11">
-        <v>3791.0</v>
+        <v>3792.0</v>
       </c>
       <c r="DN36" t="n" s="11">
-        <v>3786.0</v>
+        <v>3795.0</v>
       </c>
       <c r="DO36" t="n" s="11">
-        <v>3791.0</v>
+        <v>3800.0</v>
       </c>
       <c r="DP36" t="n" s="11">
-        <v>3720.0</v>
+        <v>3700.0</v>
       </c>
       <c r="DQ36" t="n" s="11">
-        <v>3796.0</v>
+        <v>3798.0</v>
       </c>
       <c r="DR36" t="n" s="11">
-        <v>3830.0</v>
+        <v>3844.0</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>3823.0</v>
+        <v>3835.0</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>3900.0</v>
-      </c>
-      <c r="DU36" t="s" s="11">
-        <v>43</v>
+        <v>3886.0</v>
+      </c>
+      <c r="DU36" t="n" s="11">
+        <v>3930.0</v>
       </c>
       <c r="DV36" t="s" s="11">
         <v>43</v>
@@ -14443,13 +14443,13 @@
         <v>3055.0</v>
       </c>
       <c r="DL37" t="n" s="11">
-        <v>3119.0</v>
+        <v>3118.0</v>
       </c>
       <c r="DM37" t="n" s="11">
-        <v>3111.0</v>
+        <v>3112.0</v>
       </c>
       <c r="DN37" t="n" s="11">
-        <v>3101.0</v>
+        <v>3102.0</v>
       </c>
       <c r="DO37" t="n" s="11">
         <v>3112.0</v>
@@ -14458,19 +14458,19 @@
         <v>3040.0</v>
       </c>
       <c r="DQ37" t="n" s="11">
-        <v>3095.0</v>
+        <v>3098.0</v>
       </c>
       <c r="DR37" t="n" s="11">
-        <v>3124.0</v>
+        <v>3126.0</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>3119.0</v>
+        <v>3120.0</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>3198.0</v>
-      </c>
-      <c r="DU37" t="s" s="11">
-        <v>43</v>
+        <v>3208.0</v>
+      </c>
+      <c r="DU37" t="n" s="11">
+        <v>3215.0</v>
       </c>
       <c r="DV37" t="s" s="11">
         <v>43</v>
@@ -14823,34 +14823,34 @@
         <v>2049.0</v>
       </c>
       <c r="DL38" t="n" s="11">
-        <v>2091.0</v>
+        <v>2089.0</v>
       </c>
       <c r="DM38" t="n" s="11">
         <v>2089.0</v>
       </c>
       <c r="DN38" t="n" s="11">
-        <v>2077.0</v>
+        <v>2079.0</v>
       </c>
       <c r="DO38" t="n" s="11">
-        <v>2082.0</v>
+        <v>2090.0</v>
       </c>
       <c r="DP38" t="n" s="11">
-        <v>2057.0</v>
+        <v>2048.0</v>
       </c>
       <c r="DQ38" t="n" s="11">
         <v>2092.0</v>
       </c>
       <c r="DR38" t="n" s="11">
-        <v>2114.0</v>
+        <v>2118.0</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>2095.0</v>
+        <v>2111.0</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>2189.0</v>
-      </c>
-      <c r="DU38" t="s" s="11">
-        <v>43</v>
+        <v>2174.0</v>
+      </c>
+      <c r="DU38" t="n" s="11">
+        <v>2175.0</v>
       </c>
       <c r="DV38" t="s" s="11">
         <v>43</v>
@@ -14910,7 +14910,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:44:47&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:47:41&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>